--- a/StreamingAssets/BodyParts.xlsx
+++ b/StreamingAssets/BodyParts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Id</t>
   </si>
@@ -32,6 +32,102 @@
     <t>Tongue</t>
   </si>
   <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Museau/Chanfrein</t>
+  </si>
+  <si>
+    <t>Truffe</t>
+  </si>
+  <si>
+    <t>Oreille</t>
+  </si>
+  <si>
+    <t>Nuque</t>
+  </si>
+  <si>
+    <t>Babines</t>
+  </si>
+  <si>
+    <t>Gueule</t>
+  </si>
+  <si>
+    <t>Mandibule</t>
+  </si>
+  <si>
+    <t>Gorge</t>
+  </si>
+  <si>
+    <t>Cou/enclosure</t>
+  </si>
+  <si>
+    <t>Garrot</t>
+  </si>
+  <si>
+    <t>Dos</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>Croupe</t>
+  </si>
+  <si>
+    <t>Queue/Fouet</t>
+  </si>
+  <si>
+    <t>PointdelaFesse</t>
+  </si>
+  <si>
+    <t>Cuisse</t>
+  </si>
+  <si>
+    <t>PointeduJarret</t>
+  </si>
+  <si>
+    <t>Metatarse</t>
+  </si>
+  <si>
+    <t>Doigts</t>
+  </si>
+  <si>
+    <t>Jambe</t>
+  </si>
+  <si>
+    <t>Grasset/Genou</t>
+  </si>
+  <si>
+    <t>Aine</t>
+  </si>
+  <si>
+    <t>Flanc</t>
+  </si>
+  <si>
+    <t>Abdomen</t>
+  </si>
+  <si>
+    <t>Sternum</t>
+  </si>
+  <si>
+    <t>Coude</t>
+  </si>
+  <si>
+    <t>Metacarpe</t>
+  </si>
+  <si>
+    <t>Avant-Bras</t>
+  </si>
+  <si>
+    <t>Poitrail</t>
+  </si>
+  <si>
+    <t>Epaule</t>
+  </si>
+  <si>
+    <t>PointedeEpaule</t>
+  </si>
+  <si>
     <t>Atlas_c1</t>
   </si>
   <si>
@@ -189,9 +285,6 @@
   </si>
   <si>
     <t>Sacral_vertebrae</t>
-  </si>
-  <si>
-    <t>Sternum</t>
   </si>
   <si>
     <t>T1</t>
@@ -360,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -560,317 +653,497 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/StreamingAssets/BodyParts.xlsx
+++ b/StreamingAssets/BodyParts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Id</t>
   </si>
@@ -233,6 +233,9 @@
     <t>Pelvis_ischium_ilium</t>
   </si>
   <si>
+    <t>PenisBones</t>
+  </si>
+  <si>
     <t>R_calcaneus</t>
   </si>
   <si>
@@ -408,6 +411,69 @@
   </si>
   <si>
     <t>Trachea</t>
+  </si>
+  <si>
+    <t>Digestive_system pancreas</t>
+  </si>
+  <si>
+    <t>BoursesGraisseuse</t>
+  </si>
+  <si>
+    <t>Ovaire</t>
+  </si>
+  <si>
+    <t>Trompes</t>
+  </si>
+  <si>
+    <t>UretereF</t>
+  </si>
+  <si>
+    <t>UretresF</t>
+  </si>
+  <si>
+    <t>Uterus</t>
+  </si>
+  <si>
+    <t>Vagina</t>
+  </si>
+  <si>
+    <t>VessieF</t>
+  </si>
+  <si>
+    <t>Vulves</t>
+  </si>
+  <si>
+    <t>-GlandeSurrenal</t>
+  </si>
+  <si>
+    <t>-Kidney</t>
+  </si>
+  <si>
+    <t>CanalDeferent</t>
+  </si>
+  <si>
+    <t>Epididyme</t>
+  </si>
+  <si>
+    <t>MKidney</t>
+  </si>
+  <si>
+    <t>Prostate</t>
+  </si>
+  <si>
+    <t>Testicle</t>
+  </si>
+  <si>
+    <t>UretereM</t>
+  </si>
+  <si>
+    <t>UretreM</t>
+  </si>
+  <si>
+    <t>VessieM</t>
+  </si>
+  <si>
+    <t>Diaphragme</t>
   </si>
 </sst>
 </file>
@@ -453,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -653,497 +719,642 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/StreamingAssets/BodyParts.xlsx
+++ b/StreamingAssets/BodyParts.xlsx
@@ -413,6 +413,9 @@
     <t>Trachea</t>
   </si>
   <si>
+    <t>Diaphragme</t>
+  </si>
+  <si>
     <t>Digestive_system pancreas</t>
   </si>
   <si>
@@ -471,9 +474,6 @@
   </si>
   <si>
     <t>VessieM</t>
-  </si>
-  <si>
-    <t>Diaphragme</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1199,162 +1199,182 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
